--- a/Data Sources/test_data.xlsx
+++ b/Data Sources/test_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thuan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thuan\Desktop\software_testing_katalon\Data Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055947DA-0928-4F0A-B926-E994A7B3928C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4D8ECC-A182-4FE0-AB1E-59FE7BE12519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{E92A2BA7-7C6F-4CAA-BFF3-4F484A7C023D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="6" xr2:uid="{E92A2BA7-7C6F-4CAA-BFF3-4F484A7C023D}"/>
   </bookViews>
   <sheets>
     <sheet name="new_asset_sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="new_asset_sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="new_expense_sheet1" sheetId="6" r:id="rId5"/>
     <sheet name="new_expense_sheet2" sheetId="7" r:id="rId6"/>
-    <sheet name="withdrawals_sheet1" sheetId="8" r:id="rId7"/>
+    <sheet name="new_expense_sheet3" sheetId="9" r:id="rId7"/>
+    <sheet name="withdrawals_sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="73">
   <si>
     <t>Name</t>
   </si>
@@ -226,6 +227,30 @@
   </si>
   <si>
     <t>12/31/2023</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>C:\Users\Thuan\Desktop\software_testing_katalon\Data Sources\attachment_file_gt2mb.pdf</t>
+  </si>
+  <si>
+    <t>C:\Users\Thuan\Desktop\software_testing_katalon\Data Sources\attachment_file_lt2mb.pdf</t>
+  </si>
+  <si>
+    <t>413 Request Entity Too Large</t>
+  </si>
+  <si>
+    <t>expected_message</t>
+  </si>
+  <si>
+    <t>test 20</t>
+  </si>
+  <si>
+    <t>test 21</t>
+  </si>
+  <si>
+    <t>Success! New account "test 20" stored!</t>
   </si>
 </sst>
 </file>
@@ -235,7 +260,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +344,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -341,7 +380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -388,6 +427,8 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -937,7 +978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8166AE94-DC45-4086-B411-FC851CF79D75}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1097,7 +1138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0F3F69-540E-4851-BE04-848E6AAEB1AE}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1228,6 +1269,60 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31668794-369D-447D-844B-176076BB7385}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="20"/>
+    <col min="2" max="2" width="83.296875" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.296875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.796875" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE42783-E96F-4C8A-AC5E-CFDED4A8E4E5}">
   <dimension ref="A1:F10"/>
   <sheetViews>

--- a/Data Sources/test_data.xlsx
+++ b/Data Sources/test_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thuan\Desktop\software_testing_katalon\Data Sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thuan\Desktop\Workspace\software_testing_katalon\Data Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4D8ECC-A182-4FE0-AB1E-59FE7BE12519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7064048F-388C-4B85-A279-FAA38E993B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="6" xr2:uid="{E92A2BA7-7C6F-4CAA-BFF3-4F484A7C023D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="9" xr2:uid="{E92A2BA7-7C6F-4CAA-BFF3-4F484A7C023D}"/>
   </bookViews>
   <sheets>
     <sheet name="new_asset_sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <sheet name="new_expense_sheet1" sheetId="6" r:id="rId5"/>
     <sheet name="new_expense_sheet2" sheetId="7" r:id="rId6"/>
     <sheet name="new_expense_sheet3" sheetId="9" r:id="rId7"/>
-    <sheet name="withdrawals_sheet1" sheetId="8" r:id="rId8"/>
+    <sheet name="withdrawals_sheet1" sheetId="10" r:id="rId8"/>
+    <sheet name="withdrawals_sheet2" sheetId="11" r:id="rId9"/>
+    <sheet name="withdrawals_sheet3" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>Name</t>
   </si>
@@ -178,79 +180,136 @@
     <t>DE23100000001234567890</t>
   </si>
   <si>
+    <t>Euro (€)</t>
+  </si>
+  <si>
+    <t>British Pound (£)</t>
+  </si>
+  <si>
+    <t>Hungarian forint (Ft)</t>
+  </si>
+  <si>
+    <t>US Dollar ($)</t>
+  </si>
+  <si>
+    <t>12/31/2023</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>C:\Users\Thuan\Desktop\software_testing_katalon\Data Sources\attachment_file_gt2mb.pdf</t>
+  </si>
+  <si>
+    <t>C:\Users\Thuan\Desktop\software_testing_katalon\Data Sources\attachment_file_lt2mb.pdf</t>
+  </si>
+  <si>
+    <t>413 Request Entity Too Large</t>
+  </si>
+  <si>
+    <t>expected_message</t>
+  </si>
+  <si>
+    <t>test 20</t>
+  </si>
+  <si>
+    <t>test 21</t>
+  </si>
+  <si>
+    <t>Success! New account "test 20" stored!</t>
+  </si>
+  <si>
+    <t>account_name</t>
+  </si>
+  <si>
+    <t>expected_value</t>
+  </si>
+  <si>
+    <t>The house</t>
+  </si>
+  <si>
+    <t>dropdown open</t>
+  </si>
+  <si>
+    <t>asdsadasdsadasdasdcasdasd</t>
+  </si>
+  <si>
+    <t>dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>source_account</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>destination</t>
-  </si>
-  <si>
-    <t>foreign_amount</t>
+    <t>destination_account</t>
+  </si>
+  <si>
+    <t>ammount</t>
+  </si>
+  <si>
+    <t>foreign_account</t>
+  </si>
+  <si>
+    <t>testcase</t>
+  </si>
+  <si>
+    <t>AMEX Credit Card debt</t>
+  </si>
+  <si>
+    <t>TC_3.6</t>
+  </si>
+  <si>
+    <t>TC_3.7</t>
   </si>
   <si>
     <t>The transaction amount must be greater than 0.</t>
   </si>
   <si>
-    <t>Source and destination are the same.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test </t>
-  </si>
-  <si>
-    <t>There was something wrong with your submission. Please check out the errors.</t>
-  </si>
-  <si>
-    <t>Success! Successfully created new transaction "test"</t>
-  </si>
-  <si>
-    <t>The transaction amount field is required.</t>
-  </si>
-  <si>
-    <t>Australian dollar (A$)</t>
-  </si>
-  <si>
-    <t>Euro (€)</t>
-  </si>
-  <si>
-    <t>British Pound (£)</t>
-  </si>
-  <si>
-    <t>Hungarian forint (Ft)</t>
-  </si>
-  <si>
-    <t>US Dollar ($)</t>
-  </si>
-  <si>
-    <t>12/31/2023</t>
-  </si>
-  <si>
-    <t>file</t>
-  </si>
-  <si>
-    <t>C:\Users\Thuan\Desktop\software_testing_katalon\Data Sources\attachment_file_gt2mb.pdf</t>
-  </si>
-  <si>
-    <t>C:\Users\Thuan\Desktop\software_testing_katalon\Data Sources\attachment_file_lt2mb.pdf</t>
-  </si>
-  <si>
-    <t>413 Request Entity Too Large</t>
-  </si>
-  <si>
-    <t>expected_message</t>
-  </si>
-  <si>
-    <t>test 20</t>
-  </si>
-  <si>
-    <t>test 21</t>
-  </si>
-  <si>
-    <t>Success! New account "test 20" stored!</t>
+    <t>Success! Successfully created new transaction "([a-zA-Z]+)"</t>
+  </si>
+  <si>
+    <t>TC_3.12</t>
+  </si>
+  <si>
+    <t>Error! There was something wrong with your submission. Please check out the errors.</t>
+  </si>
+  <si>
+    <t>TC_3.13</t>
+  </si>
+  <si>
+    <t>TC_3.16</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>minute</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2023-12-15T16:20</t>
+  </si>
+  <si>
+    <t>2024-11-26T07:15</t>
   </si>
 </sst>
 </file>
@@ -260,7 +319,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,14 +351,6 @@
       <family val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -328,17 +379,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -354,6 +394,20 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF051B52"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -376,11 +430,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -400,39 +453,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
-    <cellStyle name="Siêu kết nối" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -747,7 +805,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:XFD1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8"/>
@@ -799,67 +857,140 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DBF8AA0-9DC2-4135-9B59-F025B517EDDD}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="6" max="6" width="15.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="25">
+        <v>15</v>
+      </c>
+      <c r="B2" s="25">
+        <v>12</v>
+      </c>
+      <c r="C2" s="25">
+        <v>2023</v>
+      </c>
+      <c r="D2" s="25">
+        <v>16</v>
+      </c>
+      <c r="E2" s="25">
+        <v>20</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="25">
+        <v>26</v>
+      </c>
+      <c r="B3" s="25">
+        <v>11</v>
+      </c>
+      <c r="C3" s="25">
+        <v>2024</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D3" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8D5BCD-0BFA-404E-99A9-EC1EBE3315C9}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="28.09765625" style="18" customWidth="1"/>
-    <col min="3" max="16384" width="8.796875" style="18"/>
+    <col min="1" max="1" width="19.59765625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="28.09765625" style="14" customWidth="1"/>
+    <col min="3" max="16384" width="8.796875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>59</v>
+      <c r="A2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>60</v>
+      <c r="A3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>61</v>
+      <c r="A4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>63</v>
+      <c r="A5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -872,104 +1003,105 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="A1:XFD1048576"/>
+      <selection activeCell="E14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.09765625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="43.69921875" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="1" max="1" width="10.09765625" style="18" customWidth="1"/>
+    <col min="2" max="4" width="43.69921875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="27" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="8.796875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.6">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="30">
+      <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="16">
         <v>123</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27.6">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5" ht="30">
+      <c r="A4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="27.6">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="16">
         <v>123456</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="27.6">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="21" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -979,7 +1111,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1010,8 +1142,8 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>64</v>
+      <c r="C2" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>35</v>
@@ -1024,8 +1156,8 @@
       <c r="B3">
         <v>100000</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>64</v>
+      <c r="C3" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>37</v>
@@ -1038,8 +1170,8 @@
       <c r="B4">
         <v>-100</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>64</v>
+      <c r="C4" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>36</v>
@@ -1052,8 +1184,8 @@
       <c r="B5">
         <v>10000000000</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>64</v>
+      <c r="C5" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>38</v>
@@ -1066,13 +1198,13 @@
       <c r="B6">
         <v>10</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="11" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1082,7 +1214,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8"/>
@@ -1263,7 +1395,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1272,49 +1404,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31668794-369D-447D-844B-176076BB7385}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="20"/>
-    <col min="2" max="2" width="83.296875" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.296875" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.796875" style="20"/>
+    <col min="1" max="1" width="8.796875" style="16"/>
+    <col min="2" max="2" width="83.296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.796875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>69</v>
+      <c r="B1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>72</v>
+      <c r="A2" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>68</v>
+      <c r="A3" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1323,187 +1455,224 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE42783-E96F-4C8A-AC5E-CFDED4A8E4E5}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4E9F33-4258-4F9D-B7EE-E6E7849C887B}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="24.296875" defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15">
+      <c r="A1" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30">
+      <c r="A2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30">
+      <c r="A3" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="60">
+      <c r="A4" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15">
+      <c r="B6" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09466584-8D5E-4C71-BA21-BCC0B1D9AA4B}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.8984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.69921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.69921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="47.296875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.09765625" style="1"/>
+    <col min="1" max="1" width="10.3984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.09765625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.69921875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.3984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="14" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="27.6">
-      <c r="A2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="F3" s="15" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1">
-        <v>-1000000</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="27.6">
-      <c r="A5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1">
-        <v>-10000</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>57</v>
+      <c r="G1" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="14">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="14">
+        <v>1</v>
+      </c>
+      <c r="E3" s="14">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1</v>
+      </c>
+      <c r="E4" s="14">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data Sources/test_data.xlsx
+++ b/Data Sources/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thuan\Desktop\Workspace\software_testing_katalon\Data Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7064048F-388C-4B85-A279-FAA38E993B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD28C970-FDBE-4E16-9359-CFAB63251C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="9" xr2:uid="{E92A2BA7-7C6F-4CAA-BFF3-4F484A7C023D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="8" xr2:uid="{E92A2BA7-7C6F-4CAA-BFF3-4F484A7C023D}"/>
   </bookViews>
   <sheets>
     <sheet name="new_asset_sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <sheet name="withdrawals_sheet1" sheetId="10" r:id="rId8"/>
     <sheet name="withdrawals_sheet2" sheetId="11" r:id="rId9"/>
     <sheet name="withdrawals_sheet3" sheetId="12" r:id="rId10"/>
+    <sheet name="transfer_sheet1" sheetId="13" r:id="rId11"/>
+    <sheet name="transfer_sheet2" sheetId="14" r:id="rId12"/>
+    <sheet name="transfer_sheet3" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="101">
   <si>
     <t>Name</t>
   </si>
@@ -310,6 +313,33 @@
   </si>
   <si>
     <t>2024-11-26T07:15</t>
+  </si>
+  <si>
+    <t>TC_4.6</t>
+  </si>
+  <si>
+    <t>TC_4.7</t>
+  </si>
+  <si>
+    <t>TC_4.11</t>
+  </si>
+  <si>
+    <t>Source and destination are the same.</t>
+  </si>
+  <si>
+    <t>TC_4.13</t>
+  </si>
+  <si>
+    <t>TC_4.14</t>
+  </si>
+  <si>
+    <t>TC_4.17</t>
+  </si>
+  <si>
+    <t>The value must be more than zero.</t>
+  </si>
+  <si>
+    <t>TC_3.18</t>
   </si>
 </sst>
 </file>
@@ -433,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -488,6 +518,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -861,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DBF8AA0-9DC2-4135-9B59-F025B517EDDD}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -935,6 +968,330 @@
   <ignoredErrors>
     <ignoredError sqref="D3" numberStoredAsText="1"/>
   </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391B85F7-3952-46B3-8113-A2D808A2630B}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.19921875" defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15">
+      <c r="A1" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30">
+      <c r="A4" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15">
+      <c r="B6" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4556AA98-62A0-4643-87A9-0641C684B4E3}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.3984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.09765625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.8984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.8984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.69921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="14">
+        <v>1</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="14">
+        <v>1</v>
+      </c>
+      <c r="E3" s="14">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1</v>
+      </c>
+      <c r="E4" s="14">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5" s="14">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B013656A-C299-4A57-AF67-196D2794FE7A}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="6" max="6" width="15.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="25">
+        <v>15</v>
+      </c>
+      <c r="B2" s="25">
+        <v>12</v>
+      </c>
+      <c r="C2" s="25">
+        <v>2023</v>
+      </c>
+      <c r="D2" s="25">
+        <v>16</v>
+      </c>
+      <c r="E2" s="25">
+        <v>20</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="25">
+        <v>26</v>
+      </c>
+      <c r="B3" s="25">
+        <v>11</v>
+      </c>
+      <c r="C3" s="25">
+        <v>2024</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1459,7 +1816,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.296875" defaultRowHeight="13.8"/>
@@ -1472,7 +1829,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30">
+    <row r="2" spans="1:2" ht="15">
       <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
@@ -1480,7 +1837,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30">
+    <row r="3" spans="1:2" ht="15">
       <c r="A3" s="18" t="s">
         <v>63</v>
       </c>
@@ -1488,7 +1845,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="60">
+    <row r="4" spans="1:2" ht="30">
       <c r="A4" s="18" t="s">
         <v>65</v>
       </c>
@@ -1516,10 +1873,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09466584-8D5E-4C71-BA21-BCC0B1D9AA4B}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1672,6 +2029,29 @@
         <v>82</v>
       </c>
     </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Sources/test_data.xlsx
+++ b/Data Sources/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thuan\Desktop\Workspace\software_testing_katalon\Data Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD28C970-FDBE-4E16-9359-CFAB63251C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B686FD03-7BFC-43AC-8EB9-27CFBAD89ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="8" xr2:uid="{E92A2BA7-7C6F-4CAA-BFF3-4F484A7C023D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="8" xr2:uid="{E92A2BA7-7C6F-4CAA-BFF3-4F484A7C023D}"/>
   </bookViews>
   <sheets>
     <sheet name="new_asset_sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="124">
   <si>
     <t>Name</t>
   </si>
@@ -60,9 +60,6 @@
     <t>The name field is required.</t>
   </si>
   <si>
-    <t>Success! New account "test" stored!</t>
-  </si>
-  <si>
     <t>Tet is the biggest traditional festival in Vietnam. This is an opportunity for people to enjoy a happy and relaxing period of time with their family and friends. There are some differences between Tet in the North and the South of Vietnam. In the North, the traditional food of Tet is Chung cake – a rectangular sticky rice cake with meat, which is wrapped in phrynium. People usually buy the cakes with some cherry blossom branches as a symbol of Tet to decorate their houses. In the South, people consider apricots and Tet cakes are the symbols of Tet. Tet cake is also made from sticky rice, and the inside can be sweet beans, bananas, or even meat. On New Year’s Eve, most families gather together to have a warm dinner and a traditional ritual in order to commemorate our ancestors. On the first day of New Year, youngsters will give their best greetings to oldsters and receive lucky money. In the rest time of Tet, people can go to pagodas to pray for good things, peace, and health. Tet is an important occasion for families and friends to be together after a year of hard work, and it can motivate people to try harder in the next year.</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>IBAN</t>
   </si>
   <si>
-    <t>GB29NWBK60161331926819</t>
-  </si>
-  <si>
     <t>test 1</t>
   </si>
   <si>
@@ -132,33 +126,9 @@
     <t>opening_balance_date</t>
   </si>
   <si>
-    <t>test 10</t>
-  </si>
-  <si>
-    <t>test 11</t>
-  </si>
-  <si>
-    <t>test 12</t>
-  </si>
-  <si>
-    <t>test 13</t>
-  </si>
-  <si>
-    <t>Success! New account "test 10" stored!</t>
-  </si>
-  <si>
-    <t>Success! New account "test 12" stored!</t>
-  </si>
-  <si>
-    <t>Success! New account "test 11" stored!</t>
-  </si>
-  <si>
     <t>The opening balance may not be greater than 1000000000.</t>
   </si>
   <si>
-    <t>test 14</t>
-  </si>
-  <si>
     <t>The opening balance date field is required when opening balance is present.</t>
   </si>
   <si>
@@ -180,166 +150,265 @@
     <t>Success! New account "test 8" stored!</t>
   </si>
   <si>
-    <t>DE23100000001234567890</t>
+    <t>British Pound (£)</t>
+  </si>
+  <si>
+    <t>Hungarian forint (Ft)</t>
+  </si>
+  <si>
+    <t>US Dollar ($)</t>
+  </si>
+  <si>
+    <t>12/31/2023</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>413 Request Entity Too Large</t>
+  </si>
+  <si>
+    <t>expected_message</t>
+  </si>
+  <si>
+    <t>test 20</t>
+  </si>
+  <si>
+    <t>test 21</t>
+  </si>
+  <si>
+    <t>Success! New account "test 20" stored!</t>
+  </si>
+  <si>
+    <t>account_name</t>
+  </si>
+  <si>
+    <t>expected_value</t>
+  </si>
+  <si>
+    <t>The house</t>
+  </si>
+  <si>
+    <t>dropdown open</t>
+  </si>
+  <si>
+    <t>asdsadasdsadasdasdcasdasd</t>
+  </si>
+  <si>
+    <t>dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>source_account</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>destination_account</t>
+  </si>
+  <si>
+    <t>ammount</t>
+  </si>
+  <si>
+    <t>foreign_account</t>
+  </si>
+  <si>
+    <t>testcase</t>
+  </si>
+  <si>
+    <t>AMEX Credit Card debt</t>
+  </si>
+  <si>
+    <t>TC_3.6</t>
+  </si>
+  <si>
+    <t>TC_3.7</t>
+  </si>
+  <si>
+    <t>Success! Successfully created new transaction "([a-zA-Z]+)"</t>
+  </si>
+  <si>
+    <t>TC_3.12</t>
+  </si>
+  <si>
+    <t>Error! There was something wrong with your submission. Please check out the errors.</t>
+  </si>
+  <si>
+    <t>TC_3.13</t>
+  </si>
+  <si>
+    <t>TC_3.16</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>minute</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2023-12-15T16:20</t>
+  </si>
+  <si>
+    <t>2024-11-26T07:15</t>
+  </si>
+  <si>
+    <t>TC_4.6</t>
+  </si>
+  <si>
+    <t>TC_4.7</t>
+  </si>
+  <si>
+    <t>TC_4.11</t>
+  </si>
+  <si>
+    <t>Source and destination are the same.</t>
+  </si>
+  <si>
+    <t>TC_4.13</t>
+  </si>
+  <si>
+    <t>TC_4.14</t>
+  </si>
+  <si>
+    <t>TC_4.17</t>
+  </si>
+  <si>
+    <t>The value must be more than zero.</t>
+  </si>
+  <si>
+    <t>TC_3.18</t>
+  </si>
+  <si>
+    <t>Checking Account</t>
+  </si>
+  <si>
+    <t>am_pm</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>2000-10-25T18:20</t>
   </si>
   <si>
     <t>Euro (€)</t>
   </si>
   <si>
-    <t>British Pound (£)</t>
-  </si>
-  <si>
-    <t>Hungarian forint (Ft)</t>
-  </si>
-  <si>
-    <t>US Dollar ($)</t>
-  </si>
-  <si>
-    <t>12/31/2023</t>
-  </si>
-  <si>
-    <t>file</t>
-  </si>
-  <si>
-    <t>C:\Users\Thuan\Desktop\software_testing_katalon\Data Sources\attachment_file_gt2mb.pdf</t>
-  </si>
-  <si>
-    <t>C:\Users\Thuan\Desktop\software_testing_katalon\Data Sources\attachment_file_lt2mb.pdf</t>
-  </si>
-  <si>
-    <t>413 Request Entity Too Large</t>
-  </si>
-  <si>
-    <t>expected_message</t>
-  </si>
-  <si>
-    <t>test 20</t>
-  </si>
-  <si>
-    <t>test 21</t>
-  </si>
-  <si>
-    <t>Success! New account "test 20" stored!</t>
-  </si>
-  <si>
-    <t>account_name</t>
-  </si>
-  <si>
-    <t>expected_value</t>
-  </si>
-  <si>
-    <t>The house</t>
-  </si>
-  <si>
-    <t>dropdown open</t>
-  </si>
-  <si>
-    <t>asdsadasdsadasdasdcasdasd</t>
-  </si>
-  <si>
-    <t>dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>source_account</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>destination_account</t>
-  </si>
-  <si>
-    <t>ammount</t>
-  </si>
-  <si>
-    <t>foreign_account</t>
-  </si>
-  <si>
-    <t>testcase</t>
-  </si>
-  <si>
-    <t>AMEX Credit Card debt</t>
-  </si>
-  <si>
-    <t>TC_3.6</t>
-  </si>
-  <si>
-    <t>TC_3.7</t>
-  </si>
-  <si>
-    <t>The transaction amount must be greater than 0.</t>
-  </si>
-  <si>
-    <t>Success! Successfully created new transaction "([a-zA-Z]+)"</t>
-  </si>
-  <si>
-    <t>TC_3.12</t>
-  </si>
-  <si>
-    <t>Error! There was something wrong with your submission. Please check out the errors.</t>
-  </si>
-  <si>
-    <t>TC_3.13</t>
-  </si>
-  <si>
-    <t>TC_3.16</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>hour</t>
-  </si>
-  <si>
-    <t>minute</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>2023-12-15T16:20</t>
-  </si>
-  <si>
-    <t>2024-11-26T07:15</t>
-  </si>
-  <si>
-    <t>TC_4.6</t>
-  </si>
-  <si>
-    <t>TC_4.7</t>
-  </si>
-  <si>
-    <t>TC_4.11</t>
-  </si>
-  <si>
-    <t>Source and destination are the same.</t>
-  </si>
-  <si>
-    <t>TC_4.13</t>
-  </si>
-  <si>
-    <t>TC_4.14</t>
-  </si>
-  <si>
-    <t>TC_4.17</t>
-  </si>
-  <si>
-    <t>The value must be more than zero.</t>
-  </si>
-  <si>
-    <t>TC_3.18</t>
+    <t>test desc</t>
+  </si>
+  <si>
+    <t>Success! New account "test desc" stored!</t>
+  </si>
+  <si>
+    <t>test name14</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>this is desc</t>
+  </si>
+  <si>
+    <t>Success! New account "this is desc" stored!</t>
+  </si>
+  <si>
+    <t>test name1</t>
+  </si>
+  <si>
+    <t>test name2</t>
+  </si>
+  <si>
+    <t>test name3</t>
+  </si>
+  <si>
+    <t>test name4</t>
+  </si>
+  <si>
+    <t>test name5</t>
+  </si>
+  <si>
+    <t>test name6</t>
+  </si>
+  <si>
+    <t>Success! New account "test name1" stored!</t>
+  </si>
+  <si>
+    <t>Success! New account "test name5" stored!</t>
+  </si>
+  <si>
+    <t>Success! New account "test name6" stored!</t>
+  </si>
+  <si>
+    <t>test name10</t>
+  </si>
+  <si>
+    <t>test name11</t>
+  </si>
+  <si>
+    <t>test name12</t>
+  </si>
+  <si>
+    <t>test name13</t>
+  </si>
+  <si>
+    <t>Success! New account "test name10" stored!</t>
+  </si>
+  <si>
+    <t>Success! New account "test name11" stored!</t>
+  </si>
+  <si>
+    <t>Success! New account "test name12" stored!</t>
+  </si>
+  <si>
+    <t>NL23SNSB0637723916</t>
+  </si>
+  <si>
+    <t>Success! New account "test name3" stored!</t>
+  </si>
+  <si>
+    <t>C:\Users\Thuan\Desktop\Workspace\software_testing_katalon\Data Sources\attachment_file_lt2mb.pdf</t>
+  </si>
+  <si>
+    <t>C:\Users\Thuan\Desktop\Workspace\software_testing_katalon\Data Sources\attachment_file_gt2mb.pdf</t>
+  </si>
+  <si>
+    <t>The value must be zero or more.</t>
   </si>
 </sst>
 </file>
@@ -838,7 +907,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8"/>
@@ -858,10 +927,10 @@
     </row>
     <row r="2" spans="1:2" ht="27.6">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26.4">
@@ -871,7 +940,7 @@
     </row>
     <row r="4" spans="1:2" ht="156">
       <c r="A4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -892,10 +961,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DBF8AA0-9DC2-4135-9B59-F025B517EDDD}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="A1:F3"/>
+      <selection activeCell="G4" sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -903,27 +972,30 @@
     <col min="6" max="6" width="15.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="25">
         <v>15</v>
       </c>
@@ -940,10 +1012,13 @@
         <v>20</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="25">
         <v>26</v>
       </c>
@@ -954,13 +1029,39 @@
         <v>2024</v>
       </c>
       <c r="D3" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="25" t="s">
         <v>88</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -976,54 +1077,54 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.19921875" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" s="23" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="18" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="18" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30">
       <c r="A4" s="18" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" s="18" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="B6" s="18" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1036,13 +1137,13 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.3984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.3984375" style="16" customWidth="1"/>
     <col min="3" max="3" width="22.09765625" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.8984375" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.8984375" style="16" bestFit="1" customWidth="1"/>
@@ -1053,25 +1154,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="14" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1079,10 +1180,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D2" s="14">
         <v>-1</v>
@@ -1091,10 +1192,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1102,10 +1203,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D3" s="14">
         <v>1</v>
@@ -1114,10 +1215,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>78</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1125,10 +1226,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="D4" s="14">
         <v>1</v>
@@ -1137,10 +1238,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1148,10 +1249,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D5" s="14">
         <v>1</v>
@@ -1160,10 +1261,10 @@
         <v>-1</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1171,10 +1272,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D6" s="14">
         <v>1</v>
@@ -1183,10 +1284,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1194,10 +1295,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D7" s="14">
         <v>1</v>
@@ -1206,10 +1307,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1219,10 +1320,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B013656A-C299-4A57-AF67-196D2794FE7A}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1230,27 +1331,30 @@
     <col min="6" max="6" width="15.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="25">
         <v>15</v>
       </c>
@@ -1267,10 +1371,13 @@
         <v>20</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="25">
         <v>26</v>
       </c>
@@ -1281,13 +1388,39 @@
         <v>2024</v>
       </c>
       <c r="D3" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="25" t="s">
         <v>88</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1300,7 +1433,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B5"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1312,7 +1445,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>3</v>
@@ -1320,34 +1453,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="14" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="14" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="14" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="14" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1360,14 +1493,15 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="A1:XFD1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.09765625" style="18" customWidth="1"/>
-    <col min="2" max="4" width="43.69921875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="27" style="16" customWidth="1"/>
+    <col min="1" max="1" width="20.296875" style="18" customWidth="1"/>
+    <col min="2" max="3" width="43.69921875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="22.59765625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="40.8984375" style="16" customWidth="1"/>
     <col min="6" max="16384" width="8.796875" style="16"/>
   </cols>
   <sheetData>
@@ -1376,13 +1510,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>3</v>
@@ -1390,71 +1524,71 @@
     </row>
     <row r="2" spans="1:5" ht="30">
       <c r="A2" s="18" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
       <c r="E2" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30">
       <c r="A3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="16">
-        <v>123</v>
+        <v>104</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="18" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30">
+      <c r="A5" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30">
       <c r="A6" s="18" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="D6" s="16">
         <v>123456</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
       <c r="A7" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="E7" s="21" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1468,14 +1602,15 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
+    <col min="1" max="1" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.09765625" customWidth="1"/>
     <col min="3" max="3" width="25.3984375" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="4" max="4" width="47.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1483,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1494,70 +1629,70 @@
     </row>
     <row r="2" spans="1:4" ht="27.6">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="27.6">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>100000</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27.6">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="B4">
         <v>-100</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="41.4">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>10000000000</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="48">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1571,7 +1706,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8"/>
@@ -1591,10 +1726,10 @@
     </row>
     <row r="2" spans="1:2" ht="27.6">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26.4">
@@ -1604,7 +1739,7 @@
     </row>
     <row r="4" spans="1:2" ht="156">
       <c r="A4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -1612,7 +1747,7 @@
     </row>
     <row r="5" spans="1:2" ht="26.4">
       <c r="A5" s="12" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -1628,7 +1763,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1646,16 +1781,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1663,92 +1798,92 @@
     </row>
     <row r="2" spans="1:6" ht="27.6">
       <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>47</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>119</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>123</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="27.6">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="27.6">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>123456</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="27.6">
       <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
       <c r="F7" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="27.6">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="405.6">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1762,13 +1897,13 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="16"/>
-    <col min="2" max="2" width="83.296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.09765625" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.296875" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.796875" style="16"/>
   </cols>
@@ -1778,32 +1913,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="16" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="16" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1816,54 +1951,54 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="A1:B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.296875" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" s="23" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="18" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="18" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30">
       <c r="A4" s="18" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" s="18" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="B6" s="18" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1876,13 +2011,13 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.3984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.59765625" style="14" customWidth="1"/>
     <col min="3" max="3" width="22.09765625" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.8984375" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.8984375" style="14" bestFit="1" customWidth="1"/>
@@ -1893,36 +2028,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="14" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>2</v>
+      <c r="B2" s="18" t="s">
+        <v>86</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D2" s="14">
         <v>-1</v>
@@ -1931,21 +2066,21 @@
         <v>1</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>2</v>
+      <c r="B3" s="18" t="s">
+        <v>86</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D3" s="14">
         <v>1</v>
@@ -1954,21 +2089,21 @@
         <v>1</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>2</v>
+      <c r="B4" s="18" t="s">
+        <v>86</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D4" s="14">
         <v>1</v>
@@ -1977,21 +2112,21 @@
         <v>-1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>2</v>
+      <c r="B5" s="18" t="s">
+        <v>86</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D5" s="14">
         <v>1</v>
@@ -2000,21 +2135,21 @@
         <v>1</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>2</v>
+      <c r="B6" s="18" t="s">
+        <v>86</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D6" s="14">
         <v>1</v>
@@ -2023,21 +2158,21 @@
         <v>1</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>2</v>
+      <c r="B7" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>86</v>
       </c>
       <c r="D7" s="14">
         <v>1</v>
@@ -2046,10 +2181,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
